--- a/target/test-classes/testdata/testdata.xlsx
+++ b/target/test-classes/testdata/testdata.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WorkSpace\SwagLabs-Ecommerce\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9174070-FB23-456A-86A7-B00C4A82431F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826EE5FB-DA13-4B9A-9321-C8DAD2CE60F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="1" xr2:uid="{8D217FF5-D4BD-4832-B575-3E182F800BCE}"/>
   </bookViews>
   <sheets>
     <sheet name="Credentials" sheetId="1" r:id="rId1"/>
     <sheet name="PersonalData" sheetId="2" r:id="rId2"/>
+    <sheet name="WebTable" r:id="rId6" sheetId="3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
   <si>
     <t>username</t>
   </si>
@@ -86,12 +87,121 @@
   </si>
   <si>
     <t>Fail</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Engineer</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Ben</t>
+  </si>
+  <si>
+    <t>Mechanic</t>
+  </si>
+  <si>
+    <t>Bengaluru</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Dwayne</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>Kolkata</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>Ivory</t>
+  </si>
+  <si>
+    <t>Receptionist</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Joe</t>
+  </si>
+  <si>
+    <t>Postman</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>Raymond</t>
+  </si>
+  <si>
+    <t>Businessman</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>Ronaldo</t>
+  </si>
+  <si>
+    <t>Sportsman</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Cricketer</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>33</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -471,10 +581,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="24.5703125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="13.85546875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="7.5703125"/>
+    <col min="4" max="16384" style="1" width="9.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -543,16 +653,16 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="4" width="14.28515625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="4" width="12.7109375"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="4" width="15.7109375"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="4" width="9.85546875"/>
+    <col min="5" max="16384" style="4" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
@@ -600,4 +710,157 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>